--- a/src/attributions/attributions_ig_traj_270.xlsx
+++ b/src/attributions/attributions_ig_traj_270.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1183076764119961</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.05941400671657383</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01930953472118751</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00958598555159491</v>
+        <v>-0.01540958628677235</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.02060761422634686</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,25 +1031,25 @@
         <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09175816277907062</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.03791330849744347</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01334791251272746</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.03702908492564435</v>
+        <v>-0.01241617702117164</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0.01421613578192648</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
@@ -1058,76 +1058,76 @@
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03101891481490267</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.01220481651926991</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01164138845093851</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08923229392691001</v>
+        <v>-0.004037940116326967</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.01303088004244116</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01138665990084979</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.01184358214960442</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.007655882208699565</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01948002237394605</v>
+        <v>0.01045791630612842</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0.00421872434797412</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0477378694759469</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.003986210029296527</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.008140892511190578</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02267822555290375</v>
+        <v>-0.01625449241919918</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>-0.01378836058254025</v>
       </c>
       <c r="AQ2" t="n">
         <v>-0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1283576410408303</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.08960561866212041</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.03363145751306044</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01527626771569025</v>
+        <v>0.006196483576929418</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.01858081040310278</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,25 +1163,25 @@
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.05809963714774084</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.0250000687775013</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.03341238320652754</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.008788040555899363</v>
+        <v>-0.06581140775578498</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>-0.05247123261304147</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1190,52 +1190,52 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02300646015949453</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.03218249102935229</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.02598792942586009</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.06188999050275676</v>
+        <v>0.01882834370828882</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0.02115602771288829</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1046452127820991</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.03122973898646377</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.01255680517388757</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.003983483408348922</v>
+        <v>-0.00651910714324539</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>-0.002964936025189064</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
@@ -1247,157 +1247,157 @@
         <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.05359545677258241</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.02308493429690457</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01764064747431885</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01168318015005561</v>
+        <v>0.0009921390643612771</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0.01785944489989028</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0005537230637739798</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.0004584355016765533</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0009110820806714888</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.001761341332197146</v>
+        <v>-0.0005650988745921655</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>0.002040978741629576</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.0471970219532642</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.01552925361653226</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01998902677924776</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.009236586745322376</v>
+        <v>0.001466056964517457</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>0.01895405060966631</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.01155153790467731</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.01350693662742602</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01715579667784398</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01881922391632903</v>
+        <v>0.02041845700869092</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>-0.004373832450851365</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.004498642056414911</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.001988292451863348</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.004101703549462511</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01116533891972397</v>
+        <v>0.01387924240327595</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>-0.009348654031697434</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.01642085456777499</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.02917948414354984</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.003303303973536328</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.03911146254281835</v>
+        <v>0.01579958249956461</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0.01205915456938285</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1406,151 +1406,151 @@
         <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.08837674188618792</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.02398881548330636</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01550767107524797</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
         <v>-0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.03127946976748646</v>
+        <v>0.008556925100015876</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>0.01507426309578756</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.02231249257225586</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.01340548261656974</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02431501392956907</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.007699855800497873</v>
+        <v>0.01152507291142987</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>-0.001719075883829851</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.04692310928972997</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.01582000119425891</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.01808254283537118</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.006911924508577774</v>
+        <v>0.003596885381339192</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0.02370123352480092</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.05816278400771187</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>-0.01994257063429896</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.006642942916963344</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
         <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0005668904937797204</v>
+        <v>0.02291543115169448</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>0.01230589297746656</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01554911590013438</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.0005489374222000092</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.004178269222454329</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.02851676599667869</v>
+        <v>-0.0177102964616271</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0.005078816036053805</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05328705989986635</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.001310865039648626</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.0002434642090645014</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
@@ -1559,39 +1559,39 @@
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>-0.01636827680731826</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08825163360902387</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.2537866312702725</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.04961397724851137</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02455253030799458</v>
+        <v>-0.04825441666313628</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009265778723730453</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1600,25 +1600,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06992596412143734</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.1574540843120492</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0.03562481523662205</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.03543223076348211</v>
+        <v>-0.03490978820443408</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0009117100565180585</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1627,52 +1627,52 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.005257258242777015</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.07931924508318292</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0.03540462970523174</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.04905407123298976</v>
+        <v>0.06432452889444486</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.05662271180470899</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02665432196836259</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.02267603049305261</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0.01669396212702222</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002782151675633149</v>
+        <v>-0.005220467381315663</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04098022624689381</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -1681,79 +1681,79 @@
         <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.04610246467573419</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.01058431728842851</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0.04165385916277334</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01004218402575081</v>
+        <v>-0.04001254954333256</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.005590839359249752</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0961705701754542</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.4059268967038039</v>
       </c>
       <c r="AV3" t="n">
         <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0.03712845452817398</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02168971570681788</v>
+        <v>0.0554736869396807</v>
       </c>
       <c r="AY3" t="n">
         <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.01291551868838117</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.03056329307508472</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.04654572725989747</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0.1408653694785345</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.0408872507004717</v>
+        <v>-0.1189306953011155</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.01232494433132208</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
@@ -1762,52 +1762,52 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.02054578714356222</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.1099922337662752</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>0.06173741789490112</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.04471574799289943</v>
+        <v>0.1278005372894237</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.005408138998263339</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0618871166318801</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.1927928168289693</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>0.00659066819075915</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.00819614566425199</v>
+        <v>0.03230984868338774</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01453474037656417</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
@@ -1816,133 +1816,133 @@
         <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.03646494476003587</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.09542635005070459</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>-0.009210289658419812</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01231351817164511</v>
+        <v>-0.001539089253579752</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.008645580756227874</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.002082904820339784</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.001781198556638281</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0.003454931697118517</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.0008133363351992516</v>
+        <v>-0.002789828966866228</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0004648991772619918</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.03224256808187344</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.07103145851941361</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0.02860618777326679</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.005537823056631068</v>
+        <v>-0.008440003291297599</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.003421874172087956</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.009366754967866545</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.02624895969771109</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>0.05522839552856176</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.0009051417074393281</v>
+        <v>0.0170505529799228</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0001638514894333512</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02139745223212653</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.08895831383673426</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0.01656265957648866</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.02370592985220212</v>
+        <v>-0.03721128066633555</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.03033828278097538</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -1951,321 +1951,321 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.008525867169192056</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.06078186710608073</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>-0.04124255762769985</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.01433244979218704</v>
+        <v>0.005655117329051819</v>
       </c>
       <c r="EB3" t="n">
         <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.006828472131582555</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.06080732160680884</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.07570244030469159</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>-0.002131980540546732</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01491884824656267</v>
+        <v>0.06204353559522383</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.01669742224585855</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.02186319244600827</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.01064985971146341</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>0.01764835388592073</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03504802566328391</v>
+        <v>0.0255650746803939</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.002774531076498322</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.02846120928670057</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.06815437734417872</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>-0.0002830842543334325</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.000784779972453686</v>
+        <v>0.01086075013050436</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0.004171636434190921</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.04775763590652361</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.04150801066692208</v>
       </c>
       <c r="FI3" t="n">
         <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0.01002956301223026</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03499537740852492</v>
+        <v>0.005897153011662478</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.00465687057204754</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.002030106116450923</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.03154583850752581</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>0.0532103331734006</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.006690739030411228</v>
+        <v>-0.06406988471780828</v>
       </c>
       <c r="FU3" t="n">
         <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.004698824637050071</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.04610629446970064</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0.0415845283475323</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0.07185674434994309</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02454941847262728</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1739513870880959</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.1189080745086982</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05130430587037917</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.002556286484173152</v>
+        <v>-0.02718304330996373</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.05977742534028958</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1593079185055445</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.08585159398145173</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.03566289532951356</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.07029407612410245</v>
+        <v>-0.007901788865117622</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.04139062674179107</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04787361209932656</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.02312011616103813</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.01501833985724725</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1443334945972155</v>
+        <v>-0.03634041901626187</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.00818767813448151</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01161668806445349</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0.0009625298704868476</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01268733363525758</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.03242195622573958</v>
+        <v>0.004629772916004128</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>-0.009855466757474288</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.07392742558616798</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.02844326168093931</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.01781631220847613</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0447358062248162</v>
+        <v>-0.01032703629393569</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.03994661483022328</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
@@ -2277,25 +2277,25 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1577474727353315</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.1420307763901036</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.07309134975318728</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0126315082492012</v>
+        <v>-0.05648660489303407</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.07394965413530043</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.04991561599184715</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.04921082707053887</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.049076514023593</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01594097359849184</v>
+        <v>-0.02746864258624076</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.04639745097381796</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -2331,22 +2331,22 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.0124784105180935</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.04985358062100945</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.04772090658006633</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1095925951802504</v>
+        <v>0.02668722524292261</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0.01615459123519948</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2355,25 +2355,25 @@
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1613291629019773</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.07776708584325823</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.02244300190307032</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.007576925411951583</v>
+        <v>-0.03565850228275393</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.02826783512109161</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,25 +2382,25 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.06553226716494913</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.03573167018372014</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02833898559486595</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0100601050601901</v>
+        <v>-0.005778094588246368</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03380931734631901</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
@@ -2412,49 +2412,49 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.002086855251054682</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>-0.0006225278655990108</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0008083904950948427</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.008043174952025809</v>
+        <v>0.0005968818610915542</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0.001739340220446011</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.05297602456589334</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.03053585207700382</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.02921546116318763</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.02177490197076353</v>
+        <v>-0.00268003868448679</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03897325388939985</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
@@ -2463,55 +2463,55 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.026963959690853</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.04580990757737437</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.02551418503931314</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.003750446062686586</v>
+        <v>0.06129352253348469</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0.0006151487334720656</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01398635740144266</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.01567187773431611</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.02751864454485449</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0241738964474114</v>
+        <v>0.01914924617560206</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.004192642200016228</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
         <v>0</v>
@@ -2520,76 +2520,76 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.02261554897260038</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.0418839173363631</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.0003947985087469147</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.05808093528874073</v>
+        <v>0.01609446059128455</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0.02927097094429964</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.1151582664105503</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.02747421758142719</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.02714330441315606</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.04254059791211923</v>
+        <v>0.01061003864232607</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.03602328410936323</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.04445542403147159</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.02581372830057888</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.03932568005616631</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.01092124350815536</v>
+        <v>-0.01489238014802006</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>-0.0002200934954572141</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.05524707328332847</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.03128137913871103</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.02666230884721664</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.01537255452550411</v>
+        <v>-0.0004016919558901625</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.03890655914819156</v>
       </c>
       <c r="FD4" t="n">
         <v>-0</v>
@@ -2628,67 +2628,67 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.06208097730407703</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>-0.02287897090956699</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.019070909331275</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
         <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.001122427335682528</v>
+        <v>0.01239353301558893</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.02529373203734899</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.01032499597493446</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.009690299195433927</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.006849393901056254</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.04268699434616034</v>
+        <v>-0.02838568015710879</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0</v>
+        <v>0.02487169362083928</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.06869021931810003</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.006219374501421094</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.006775409735146895</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
@@ -2697,144 +2697,144 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.01958278467357271</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1662628734415326</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.098589737730975</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04953200822106372</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02133010149997967</v>
+        <v>-0.03716882124529888</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.05889402576708862</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1440286678516576</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.07591009000613824</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02593480952110694</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0661266248827725</v>
+        <v>-0.02526441669601166</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0.02897242378515327</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03250373664303926</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.01308287818657964</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0122848829950638</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1013520165950213</v>
+        <v>-0.01148623688754034</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.01531570970063306</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01233839198073578</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.0007722488823694022</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.003707285715761993</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01017505609581382</v>
+        <v>0.009697745314079289</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>-0.007242541824408706</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05000093871760095</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.009657181753325368</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.01013028786393929</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02411867676043516</v>
+        <v>-0.0164482372777186</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01402000908131821</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
@@ -2846,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1332795082265418</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.1115342192350542</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.05292679904459942</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0158787840353891</v>
+        <v>-0.03806562900629869</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>-0.04875157598315774</v>
       </c>
       <c r="AZ5" t="n">
         <v>-0</v>
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.06038280794145799</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.03627771225050603</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.04344078340109429</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01886491320069688</v>
+        <v>-0.06671482257130028</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.05611205330187267</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -2897,52 +2897,52 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.02147077196332737</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.03853905649338467</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.03121776344973319</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.07618799737595525</v>
+        <v>0.02364058539047298</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.01717465966608096</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1130186985656727</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.05380420809177421</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.007402917725817255</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.00902805723079788</v>
+        <v>-0.01849187197016208</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.009626130295333645</v>
       </c>
       <c r="CA5" t="n">
         <v>-0</v>
@@ -2954,52 +2954,52 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.0573357844121691</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.02762513005570845</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02391274886821854</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01106938039289704</v>
+        <v>0.002012564282799612</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.02612644073259819</v>
       </c>
       <c r="CJ5" t="n">
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.001365731427611333</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.001572324596117162</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.0006129914800815593</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.01078137534969934</v>
+        <v>0.00365336446598921</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.00551051687141719</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
@@ -3008,22 +3008,22 @@
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.04723786429950166</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.02032286390559992</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02447836692061396</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01093513351964016</v>
+        <v>0.006837802213101968</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.02882748845648164</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3035,229 +3035,229 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.02397091151485729</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.03345801405159488</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01489409874778369</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01813563904271455</v>
+        <v>0.03608122934416567</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.0009048471383805738</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.007206672152013009</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.00690845174317941</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.007760999060571318</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0136776395009082</v>
+        <v>0.004166525402938957</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.006955147207822115</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.01305031937323887</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.02764588040787757</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.005227688674259006</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.03930199517275862</v>
+        <v>0.0187381655148169</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0.02034467008597319</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.09448628021226607</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.02781516952107855</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02197518676156239</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.03058705637903665</v>
+        <v>0.01328962260646212</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0.0304176700423284</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.0257672319327012</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.013018733381946</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.03400253771743307</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0003073468864007224</v>
+        <v>0.01817494190107361</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.0008270683631312054</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.04801784852581533</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01948476015417681</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.02303773825843137</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.008889186253586197</v>
+        <v>0.008674003653532616</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.03110559423755292</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.05828765273280654</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.01444319140441395</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.009653352546241077</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.001809773536839722</v>
+        <v>0.01711024059670139</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>0.01351874446343366</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0154320211413641</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.005266550371329591</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0004395297929342383</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.02224043483190519</v>
+        <v>-0.0232812253095729</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.00138062191346152</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.05392831607146129</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.004166469481758102</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001620818630228979</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
         <v>-0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.005889418146849242</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
@@ -3280,25 +3280,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1656132692823486</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.279124241643521</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.06332259382534795</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07201308063257535</v>
+        <v>-0.02762894846112073</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006750040236193386</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>-0</v>
@@ -3307,160 +3307,160 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1378318819665976</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.1907162918675416</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.03652675361592649</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.09633081878909044</v>
+        <v>-0.03296570930158157</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.004111794539492396</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01283565132039671</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.0842227134110114</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.0002229368255991902</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0723373626606276</v>
+        <v>0.06514595656644362</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.03687450013162189</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02923349623917305</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.1259942104877981</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>-0.04420925084468882</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03223274750222634</v>
+        <v>-0.07848257797210868</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0438816840868908</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.05574910131996682</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.02155216130396037</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.06807415932470212</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.03523946930170564</v>
+        <v>-0.03827357410075978</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01090652203738178</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1345567124426323</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.3492257278969247</v>
       </c>
       <c r="AV6" t="n">
         <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>-0.00355701222424841</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.008651875832196149</v>
+        <v>0.1345038130050455</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.04127246816697281</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.06642206875963065</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.03300920246290733</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0.05581374663042713</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.05025958977303151</v>
+        <v>-0.1735676531394212</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.002763583668802588</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,52 +3469,52 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.02344680477521778</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.02978691146499432</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.09825332270577748</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.05731126866279369</v>
+        <v>0.0941963944260592</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.02179648674394515</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1052063326300443</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.197072476710902</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.01681565687068927</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.02598172830703218</v>
+        <v>0.06166973723403793</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.01996788279306834</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
@@ -3523,351 +3523,351 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.05586579595414329</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.08767611171470337</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>0.01295776117052723</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.02653524775893143</v>
+        <v>-0.006527881850666439</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.004804445769664764</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.003384358033868128</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.01083110329922135</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>-0.01425007821702101</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.0143632255186303</v>
+        <v>-0.0197793589575065</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.002540001576460935</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04877848940549149</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.07254481306032003</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.03540277116295626</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01467425472988627</v>
+        <v>-0.007749252218819924</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.0009158068908315075</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.00631701191094764</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01552554433418465</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>-0.0003104113852679621</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.03028893329654798</v>
+        <v>-0.0003425891049277837</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>9.261477618400008e-05</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.01037144018172407</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.06000578200483908</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>-0.06455456560740098</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.02611979082255952</v>
+        <v>-0.06722639862900112</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.02462294943633506</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0.001896266219401006</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.01088176422508598</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0.01867734357225099</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.004122180791560485</v>
+        <v>-0.005377033227939417</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.003037639804374541</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.09071411366486225</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.05229549131452736</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0.02704670919230993</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.03710597318619618</v>
+        <v>0.09251821182971544</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.03151262900671459</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.02166137809053354</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.08152338177589474</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0.08667893894024714</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.06336710033614103</v>
+        <v>-0.01626069881236129</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.01367913432067895</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.04791978025952082</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.07769133107128863</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.02266998334626571</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.009455858029995802</v>
+        <v>-0.01028185361448744</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.003598266043892261</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.04824908110239098</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.01051144063389798</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>0.04748965459258143</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01320048228019086</v>
+        <v>-0.01400474004250794</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.003584986080081413</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.01191202975731364</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.002676069153934686</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0</v>
+        <v>0.06584445349652913</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.005781376361303485</v>
+        <v>0.03211288872499326</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.0121534772339058</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
         <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.03786725560015393</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02212208209372212</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.03563408003848977</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.02266855380722869</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2164931309482306</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.1589610711727572</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09214365850088518</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02381459853984367</v>
+        <v>-0.04337964506746834</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.10106543879525</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
@@ -3876,25 +3876,25 @@
         <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1900687902142485</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1227449045020368</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06283782320555147</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06586221235975448</v>
+        <v>-0.01494532506676126</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0.05593671828055311</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
@@ -3903,106 +3903,106 @@
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01896851667057296</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.02863058078650222</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.03353753312195797</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1086175749328804</v>
+        <v>-0.02229832001961994</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.0009944783973878963</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01982598215513047</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.0003256268392576414</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01421781706718067</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
         <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0607774239447738</v>
+        <v>0.0005517397164854005</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>-0.008504614147312782</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.06384566552884403</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02538074766034841</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0189689979514688</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03643644028785887</v>
+        <v>-0.008424205901947788</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>-0.0502531428929397</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1590060399513155</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1463275473736579</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1140684333089583</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.004031725893849656</v>
+        <v>-0.03509795254325043</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0.109345915823353</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,76 +4011,76 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.05350601771966626</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.04932863652300052</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.05007345607527767</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.04585510268779832</v>
+        <v>-0.04623260542257231</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>-0.04530551014053272</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK7" t="n">
         <v>-0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.003996781352719209</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.04281810092315083</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.04596980012616368</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.09995934237377883</v>
+        <v>0.02105778762007339</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0.004317474875009573</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1539174923734821</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.08404362072520531</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.03327418243692633</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02059107259660221</v>
+        <v>-0.024025163353162</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>-0.03217315708767531</v>
       </c>
       <c r="CA7" t="n">
         <v>-0</v>
@@ -4092,22 +4092,22 @@
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.07074083329094238</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.04130357840418181</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03021381243302501</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.005620053681842038</v>
+        <v>0.002236600239076929</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0.03427002024254591</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
@@ -4119,49 +4119,49 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.01090557420502618</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>5.835430320860319e-05</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.002987013306047702</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.02195464666476213</v>
+        <v>0.0005470976653379152</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>-0.008606977068776637</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.06467324588283145</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03680334579194405</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.03131778461504076</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01565025492999986</v>
+        <v>0.006678294474540209</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0.0378188200655074</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
@@ -4173,130 +4173,130 @@
         <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.005499407801403187</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>0.005967600968891288</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02500622161908504</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.02846858089121116</v>
+        <v>0.05092798024129717</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0.00205764002187583</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001719344165805898</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.01912797001000105</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.03438707654223193</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
         <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03974269439323686</v>
+        <v>0.01515440308682065</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0.009579668336211303</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.002751620338575852</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.0468107666023125</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.006084185011436123</v>
+        <v>-0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.0221094805364616</v>
+        <v>0.02921393859205576</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0.01431956995744334</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1053473776465403</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.03381188172023993</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.03954724612811551</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01843321298348168</v>
+        <v>0.01332405059405311</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>0.03384596103336049</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.04827993349921349</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03358558061923612</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.03395577481051788</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.01020519968690913</v>
+        <v>-0.006699547886820608</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>0.004051194981766691</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,25 +4305,25 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.0646142969969708</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03691880530666464</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02564228028314473</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.009550552541936538</v>
+        <v>0.007592433114835911</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0.03584873379244093</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
@@ -4335,67 +4335,67 @@
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.05150322783248382</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.02113800646607456</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.03119474364555842</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
         <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.02585711187436319</v>
+        <v>0.01264562921169815</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>0.03154009075545897</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.004021994979321855</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.001738165228662885</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01232153648056943</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.03067168442553688</v>
+        <v>-0.02377997533538515</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0.02189201655433314</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.02840409005413238</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.005932175969692238</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01641926851505799</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
         <v>-0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>-0.01806336878785947</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
@@ -4418,25 +4418,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1967708419124733</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.2650050552336102</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02105939184546008</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.08540261505905275</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02159826308139944</v>
+        <v>-0.06975935624334557</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.02848423300111132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00646343433506608</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1839752407330107</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.2005425909663803</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0136475912964221</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.0469943466558634</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06410719122467165</v>
+        <v>-0.04950597859014896</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.02572641147043984</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.007613452833731441</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,52 +4472,52 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02041986344986986</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.06693374759666799</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02023161723041588</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.01951193003928579</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.08386379730933245</v>
+        <v>0.0323346273786867</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.009331752982247294</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.06952310234979309</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.008894837693108263</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.05170185397648627</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03334885674558645</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.01795248072868565</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01369763558297301</v>
+        <v>-0.007370823556753229</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.01553611506841176</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.05967604024952568</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -4526,133 +4526,133 @@
         <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.04985245853674395</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01749806933138082</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.002892097614867418</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.05718022179325975</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01240873081619621</v>
+        <v>-0.05612006660120532</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.03241313368255059</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0104989122254942</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.137605627849073</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.283709686611043</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.02456566900005732</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.03799887563040592</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02377272102055637</v>
+        <v>0.03156966548561439</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.03179248766445465</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.03666550215830869</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05829709528986338</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.03857323132062866</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.01313323489680905</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.06708321841754265</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.02918688799134627</v>
+        <v>-0.1089795276012803</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.04732587658507667</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.006478460278423897</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.0388146954839934</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.05716311196925</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.019519703695581</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.05144928529924453</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.06564393342845884</v>
+        <v>0.0969430017859292</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.03554574642186482</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0143920217585471</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.09883665695904194</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1270514975099279</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.006695518287693844</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>-0.0008018622796258022</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.002433726588912304</v>
+        <v>0.01434587305899816</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>0.01244655151281326</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.00959209795532842</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,52 +4661,52 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.06105200888716648</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.06739645866687233</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.007375290042254485</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.01058010982736738</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.007984192941017969</v>
+        <v>-0.000167696443055077</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.02326035387194274</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.008489066787858558</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.001675872728212995</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.0004563207409788877</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.0006692332536050909</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.02145531359072898</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.02034774506969227</v>
+        <v>-0.02742448701147641</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.008938100021586157</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.01373942970062161</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,79 +4715,79 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.05629680074601172</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.0548676370488267</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01226756019382977</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.03137085279995845</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.01232407305992254</v>
+        <v>0.003399438728241294</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.02270225672176187</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0.001868381957935604</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0.006872516978788067</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.02150088328165945</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.007925803394331434</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.04760994177240586</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.0007409580166456241</v>
+        <v>-0.003956014878707961</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.01211590241616265</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.00589382147472576</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.01821502071856853</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.009691239470002538</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.001644295890834962</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.03921305234909025</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.01223580797371441</v>
+        <v>-0.01792211719686711</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.02249507212371893</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.03899568275250344</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
@@ -4796,243 +4796,243 @@
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.002086750337535839</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.03283059838521874</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.01050970458569065</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>-0.01638419330862931</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.01182448029180079</v>
+        <v>0.008181814645566087</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>0.03278814517648578</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.005528834849493756</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.09670327957259497</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.07838729814648575</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.002080307644902311</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.03280448861266706</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01274106592493993</v>
+        <v>0.05359052649747519</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.01666918280884291</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.02994024584049261</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.01938343694166192</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.04977002161745193</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.01234946818755733</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.0247012017739537</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.03190626930324628</v>
+        <v>0.01955589592977269</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.0411708205520129</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.01380705198976486</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.05425141831788168</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.0545583148656341</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01068750894673725</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.01357296279110911</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.00732110299618722</v>
+        <v>0.008851729330875975</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.02804907976287273</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0.002072239438809029</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0661043222288132</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0.02425699566946161</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.03061842564331942</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.03839659592325681</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.03842484643701484</v>
+        <v>0.001711482106203641</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>-0.01543114945773326</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.01622523773681915</v>
+        <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.003472543840543792</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.0038207607570778</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.006787625339911352</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0.0171613403516136</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01184202518333292</v>
+        <v>-0.02240357659577574</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.021148376001634</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.004768935516519492</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.04602339053131509</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.01759752878040514</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.01493481960733862</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.05007373062138434</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.02551342436708259</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02517352613152605</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1479659220437635</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2387077326513741</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.06797784265224502</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05508177904049959</v>
+        <v>0.001104353515527399</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0222632970042814</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1379340204782736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1755553893213557</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.06562201846455426</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.08458031861258693</v>
+        <v>-0.01033087717111966</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0004312035193815047</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,52 +5041,52 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005933161485528333</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.06227265993710771</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0</v>
+        <v>0.01248100295046824</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03605459935317519</v>
+        <v>0.07309294609813236</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.04126372145347911</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02035026539437508</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.06290120153465241</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0.01986259900349703</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.002036951002623077</v>
+        <v>-0.01468156550347631</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03885516118401735</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -5095,160 +5095,160 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.03647050517804375</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.01928408265896196</v>
       </c>
       <c r="AM9" t="n">
         <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.06023233303281686</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.009290757823381445</v>
+        <v>-0.04753725293071204</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0110671417427793</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1097884481093118</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.2358114980705751</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0.0251648680282537</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.008729065751977108</v>
+        <v>0.1222662474380745</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.02681089071085719</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.04251094738647535</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.03701665347282697</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.1045919969614737</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.04765905513216565</v>
+        <v>-0.06599275087908038</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01549720239656181</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.02653931006413302</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.04892852460553179</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.03216264329681798</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.04013595945723642</v>
+        <v>0.1603512934418344</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.00921708916055553</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.07836373764411725</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.100258298234984</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.03564841989720731</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.01255212443194119</v>
+        <v>0.0829458903503518</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.01294669617783297</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.04202988778160553</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.06375369148944911</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>-0.002057769314283808</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01651814297856586</v>
+        <v>-0.01211326570539124</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.0114714587792318</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -5257,52 +5257,52 @@
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.003291509469420851</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.007045938190649382</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.04091356998396182</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.01372290373459768</v>
+        <v>-0.04152978998435907</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.0153358691843711</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.03893521909457674</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.04897435773996345</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.01407872682882558</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.004551939180809582</v>
+        <v>-0.01055997007038905</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.006094334023123741</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
@@ -5311,25 +5311,25 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.002976507137625561</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.03329815417478197</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.01542770324616192</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.002460227743733641</v>
+        <v>0.01639791657613373</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.005365338779386477</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
         <v>0</v>
@@ -5338,133 +5338,133 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01450866541266513</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.03008037215508554</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>0.05652770668976206</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.02149434770585267</v>
+        <v>-0.02108192290297939</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.03117126670871817</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.004478066141906966</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.04520444708774131</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0.004664726215604025</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.02159488656796355</v>
+        <v>0.01267861156450676</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.0001765484734963898</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.06599027716273885</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.06565789102703237</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0.01726239131675898</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01235644676213008</v>
+        <v>0.04920354457150818</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.02394744590021573</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.01024641262555681</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.04520889281590022</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.01966675362094232</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.040021785547507</v>
+        <v>0.03223192967828856</v>
       </c>
       <c r="ET9" t="n">
         <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.006677918859384296</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.03546518528404812</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05065950007802948</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>-0.009093770341052227</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.000340453074295357</v>
+        <v>0.005435958414426116</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.006018753625404235</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
@@ -5473,52 +5473,52 @@
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.04819109990828077</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.03770416571436889</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.0009175467341158154</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.03812312691505759</v>
+        <v>0.03981059378440965</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.009344266628761626</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.0008890412955202529</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.00144458590414132</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>-0.001284400071262812</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.001305528857722856</v>
+        <v>-0.006469988742281124</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.0008813861030704892</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
@@ -5527,54 +5527,54 @@
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.03635359610113294</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>0.01972838523788178</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.09186509288272342</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.01741458963578133</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2412782746401877</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2878147212338333</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1389090265511195</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06811726104795054</v>
+        <v>-0.06903426678540173</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>-0.1861605570832192</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
@@ -5583,25 +5583,25 @@
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2560439628048113</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2577700144135838</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1516072155740714</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05585567026096942</v>
+        <v>-0.01676982683713597</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0.1812069610603313</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
@@ -5610,106 +5610,106 @@
         <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01267198555847509</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.02997240260031061</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.03676869906659835</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1129258614516598</v>
+        <v>-0.01091782248889533</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0.01066161805841402</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01362156524442905</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.01514748725954933</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.00973665942094442</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.06971821131388831</v>
+        <v>0.03799535978859657</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.004067049017134807</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.06181591163826725</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.04255185539692295</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.02369771061363335</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.0321511165760441</v>
+        <v>-0.004216380830539836</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>-0.0639193299035308</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1414906708087964</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.2284602772073094</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.08074787096012495</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.0008861955579279861</v>
+        <v>-0.01842010448539014</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.07901639720775332</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
@@ -5718,22 +5718,22 @@
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.04481977794627437</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.05833942486599913</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.04385861597235118</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.09261715607582949</v>
+        <v>-0.06472983427533363</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.08219059373657751</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -5745,49 +5745,49 @@
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.009587531954688753</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.04620553626372256</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.05534025790505372</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0986743353489599</v>
+        <v>0.01785785903410116</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.005465321145655151</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.1472407346647926</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.114615607703585</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.0487230462573247</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.006317365366605245</v>
+        <v>-0.02948840970321008</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.04878079628020656</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
@@ -5796,28 +5796,28 @@
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.06753708734640677</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.0648703088395393</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.03329787585315829</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.0005870451976565737</v>
+        <v>-0.007721770691504358</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>0.03872908045458783</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -5826,52 +5826,52 @@
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.008447360754303372</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.003525744495956261</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0.01251346147907148</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.0320306905585979</v>
+        <v>-0.01611087152957932</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>-0.05644652086419788</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.0615932136834842</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.05921382478101779</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.03404204442739523</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.02927034232696091</v>
+        <v>-0.007590635846527114</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.0401456629436726</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>-0</v>
@@ -5880,49 +5880,49 @@
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.01805831769008884</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.03323712693232195</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.05464099621670856</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002173383830132775</v>
+        <v>0.06211845463833868</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0.04859796409482577</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01070001177120493</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.02722390994583234</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.02783640068794748</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.04015257849101932</v>
+        <v>0.02287095351202065</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0.01431597885538048</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,25 +5931,25 @@
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.003772873524205466</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.05460411774411725</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.01049512394052305</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02678149502330867</v>
+        <v>0.01521494923011018</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0.03231451210163941</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
@@ -5958,52 +5958,52 @@
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.1100664395124962</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.06896587327047683</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.04255612048831804</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.007141337276886888</v>
+        <v>0.02754018855389256</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>0.0253394665324788</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.04271954289349626</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.05035544475187786</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.02536315576538163</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.008148267171477644</v>
+        <v>-0.03500058140180162</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0.008463769422931347</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
@@ -6012,28 +6012,28 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.06352315293273947</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.05914737327037439</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.03046907641288739</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.02004332167290537</v>
+        <v>-0.001121468935411549</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0.03988739638894542</v>
       </c>
       <c r="FD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
         <v>0</v>
@@ -6042,22 +6042,22 @@
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.04902542982393479</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.03157828800321573</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.04833986415083051</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.04322008718990253</v>
+        <v>0.007263258386767567</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>0.03666540696353879</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6069,52 +6069,52 @@
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0008427917270472245</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.000422044898886936</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.02476516228451239</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.002141869490158386</v>
+        <v>-0.002354695548638968</v>
       </c>
       <c r="FU10" t="n">
-        <v>0</v>
+        <v>0.04851509601175726</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0317649915351207</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.0005669519955003551</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.02688890654468967</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.04211418995605395</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>-0</v>
@@ -6125,160 +6125,160 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2714067643758337</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.4870340664615532</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1455723229004728</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03586069398986891</v>
+        <v>-0.1171038079518017</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.4436249964418046</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2733076075981725</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.4564442769178869</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1624277012435156</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.08273792125538318</v>
+        <v>-0.05570592675916219</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.4518573142021146</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
         <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.008954873075792421</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.03678668043720053</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.03836216179904126</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.08797567655804962</v>
+        <v>-0.08439262822239568</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01567068857811676</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01340254325220028</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.02363507836424826</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.006336328411089154</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.04944760578558498</v>
+        <v>-0.01012467495818293</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>-0.03447034086699631</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.05589601734656249</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.08346482370634739</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.01691581698354639</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03780649541021868</v>
+        <v>0.001425139274130004</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.08288815890890448</v>
       </c>
       <c r="AQ11" t="n">
         <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1500266940496688</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.4142823062989933</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.07729613851105492</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.01923626526822604</v>
+        <v>-0.07056162875261536</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.2195072107427806</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>-0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0604596999840659</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.1084983479853896</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.05866889128964646</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.07372973262872869</v>
+        <v>-0.1511296373082835</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.1920463743209763</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6311,52 +6311,52 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.01065681270443701</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.1430673738132707</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04791512450385455</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1001646223654745</v>
+        <v>-0.003506804419984493</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.01774829638850664</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1386825729418612</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.2174578064331273</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.03884322875779642</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.007487444837952052</v>
+        <v>-0.07027843473932166</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>-0.1317131469424722</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,25 +6365,25 @@
         <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.07003434321246337</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.08493679991571336</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0350254086187342</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.005891865320836681</v>
+        <v>-0.005132296706541574</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.107260316561954</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,49 +6395,49 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.01116511190832582</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>1.411111576022698e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.005253336738184716</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.04709194035472856</v>
+        <v>0.01656313510158922</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0</v>
+        <v>-0.02173635870421967</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.06174685538066453</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.06794519309467903</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.03870409914600666</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.01982883150617436</v>
+        <v>-0.002517826506811512</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.1129463761574095</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6449,22 +6449,22 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.03116748670072723</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.04002326517017469</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02940341820821472</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01843815763845517</v>
+        <v>0.0444566794875837</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>-0.001614683906987056</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,106 +6473,106 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01072828974938054</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>0.006081052987154392</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.009720439196999244</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0209866850076461</v>
+        <v>0.03351720870604942</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>-0.00651404814989466</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.01438501966824475</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.05777594466092893</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.02172884913678988</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.0132618380024598</v>
+        <v>0.01639577769065341</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0.05440360332127209</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1077872425324581</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.09693440032671177</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.03919551208102516</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.005328860800526965</v>
+        <v>0.02439302318152298</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.1195640580710318</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.04804444759808291</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.02990216264525762</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.03901763000119844</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.002457470554809723</v>
+        <v>-0.01296633880913288</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.07094629067274934</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6581,25 +6581,25 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.06432189949483554</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.06543195927951648</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.03352929395248684</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.008246082652946116</v>
+        <v>0.006229404879093165</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.1024537790435004</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6611,79 +6611,79 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0328326701456003</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.002535719417640378</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.03960553809179333</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02562750053489276</v>
+        <v>-0.008508884200727705</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.05172385674770193</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0001596378971706421</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>0.004963051982165477</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02693253112293839</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.006327585439623186</v>
+        <v>-0.008810654514323803</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03438754936987051</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0372858696279504</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.04462418624405818</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.01964902975196543</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.05108333755087999</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -6748,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
@@ -6964,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
@@ -7072,10 +7072,10 @@
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
@@ -7099,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
@@ -7126,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7290,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7371,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
@@ -7832,22 +7832,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2092555256636294</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.1555227955103367</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06995427573767635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05739924232357475</v>
+        <v>-0.08280241633837762</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.07228254118439849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7859,133 +7859,133 @@
         <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2032031164877519</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.1280013609926359</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.07342525722016756</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01881385010078339</v>
+        <v>-0.05768573777505789</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0.07598714090533507</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005925257005405446</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0.01378244307605709</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.02029985355908337</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.06038164376338419</v>
+        <v>-0.004451178988662641</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.009296517155136153</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00474342197413865</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0.004937052603166965</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.003150675559788919</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
         <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03030016516921492</v>
+        <v>0.01397086337945391</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>0.01246458326384953</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.03224701179088503</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.01048426267962558</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0.008800493304057098</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.01978541408020478</v>
+        <v>-0.008843058167262783</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>-0.01472490147678882</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.09470419513085324</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>0.1072825700670186</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.03466692001246453</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.01047166037388737</v>
+        <v>-0.02880010261672456</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0.02119212093019258</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
         <v>-0</v>
@@ -7994,22 +7994,22 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.03392770264770475</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.03149636970574076</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0.0312425067020119</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.05272762431173625</v>
+        <v>-0.05775229627875221</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>-0.05909104473704765</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8018,52 +8018,52 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.01004758422954378</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.03556435611813727</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.03136522446729834</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.05762484756504983</v>
+        <v>0.0160377211932141</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0.01704690532514525</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.08727001366882281</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.05103091105067987</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0.01434265502184255</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.02274915151628361</v>
+        <v>-0.01218046926464564</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0</v>
+        <v>-0.01384008897907786</v>
       </c>
       <c r="CA14" t="n">
         <v>-0</v>
@@ -8075,133 +8075,133 @@
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.04996009371413365</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0.02622308846222178</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.01916443306842008</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.004217207391600208</v>
+        <v>0.007127736093176795</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>0.01772200217820961</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.008361984912041718</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0.0008607606247808709</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0.005310143289268811</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.04320140206811009</v>
+        <v>-0.007075855757484145</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>-0.01179765717120735</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.04568746562739772</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.01997228527183853</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.02236679920305712</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.01643140861784035</v>
+        <v>0.006098553888960175</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0</v>
+        <v>0.01817422480022265</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.03072380718267132</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0.03236358042313904</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.02017779473866237</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.01876615173091657</v>
+        <v>0.05139714038333401</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0</v>
+        <v>0.01369322867674388</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.009512690706736576</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.005787316285419271</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.008085557643961294</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01229617762981887</v>
+        <v>0.01937102480609069</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>-0.009748317299426336</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
         <v>0</v>
@@ -8210,25 +8210,25 @@
         <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.01220476749076608</v>
+        <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>-0.02951577427682513</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0.008182208027690792</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
         <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.007686764775589467</v>
+        <v>0.01498315768491325</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0.01825960522851271</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED14" t="n">
         <v>-0</v>
@@ -8237,49 +8237,49 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.07466337058275521</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.0315053328593496</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.01826245205985942</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.007883362227836895</v>
+        <v>0.00944317674849344</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>0.01334605781814872</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.03594307345005075</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0.01243019102766987</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.03112116527872794</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.002246135517427202</v>
+        <v>0.002243096035829807</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>-0.01165242559899074</v>
       </c>
       <c r="EU14" t="n">
         <v>-0</v>
@@ -8288,97 +8288,97 @@
         <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.04609332239012731</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0.0208915055260241</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.01825583707176345</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.009044521283204217</v>
+        <v>0.009264301360075101</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>0.02170654796978215</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.02240851692946044</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.01511337365004362</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.01631843673574277</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
         <v>-0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.02605618111617304</v>
+        <v>0.0113268961668335</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>0.01985781488408164</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>6.877014744184186e-05</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>7.644719732458803e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.01299729352922879</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
         <v>-0</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.002642398009516363</v>
+        <v>-0.001509859052916248</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0.01880918805336776</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.02324626247009449</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>0.001820653164314721</v>
       </c>
       <c r="GA14" t="n">
-        <v>-0.00405279887161444</v>
+        <v>-0</v>
       </c>
       <c r="GB14" t="n">
         <v>-0</v>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0</v>
+        <v>-0.005457780234660795</v>
       </c>
       <c r="GE14" t="n">
         <v>0</v>
@@ -8401,103 +8401,103 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0.1266462604957166</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2574117760980887</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4951432500059961</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1351941507545215</v>
+        <v>-0.0359596502453245</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.1458807809284861</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0.1005695273084039</v>
       </c>
       <c r="K15" t="n">
         <v>-0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.2348286332002927</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4623139546353567</v>
+        <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1333355898686648</v>
+        <v>-0.002737779122467324</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.0997243053547566</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0.01760666690443216</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.00727118115706724</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0003759573960237542</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1833564385629497</v>
+        <v>-0.03898100455986269</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0.02367567826519899</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.01516222809156062</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.06800700434651451</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.08084943172907946</v>
+        <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.02662732033895885</v>
+        <v>-0.02746700724001907</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>-0.02875747820365326</v>
       </c>
       <c r="AH15" t="n">
         <v>-0</v>
@@ -8509,52 +8509,52 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>0.02170311454758471</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.04680454798613666</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.1130841665430811</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.02561028891109931</v>
+        <v>-0.007094937415410008</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.01299687962429524</v>
       </c>
       <c r="AQ15" t="n">
         <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.08472652476482592</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.1707642212086706</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.1656544980421544</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.09166778546295208</v>
+        <v>-0.1007914678233191</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>-0.08600565149370705</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
@@ -8563,76 +8563,76 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>0.01499549256361632</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.03737641349266694</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.2326916093045944</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1372212740804411</v>
+        <v>0.01190784752073141</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.04702454220862393</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
         <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.007487808577764449</v>
       </c>
       <c r="BM15" t="n">
         <v>-0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.1104398967228304</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.02679272737508455</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.1286414600365519</v>
+        <v>0.003610416424803363</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.008104688305153049</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>0.03643594286452657</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.04167539533017816</v>
+        <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.1387129344300701</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.007310758904751065</v>
+        <v>-0.03598242985426318</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>-0.06421245250715174</v>
       </c>
       <c r="CA15" t="n">
         <v>-0</v>
@@ -8641,55 +8641,55 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>-0.02249073403637856</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.06623082312647229</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.1445492662415139</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.05133294973741546</v>
+        <v>0.01066464430794283</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.04343561869056956</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0.004126862283695319</v>
       </c>
       <c r="CN15" t="n">
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.08538116883641726</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.09947630025185149</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.127802452872452</v>
+        <v>0.06820944344543946</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>0.001346799260798693</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
@@ -8698,49 +8698,49 @@
         <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0</v>
+        <v>-0.02108001772460196</v>
       </c>
       <c r="CW15" t="n">
         <v>-0</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.05211665555953089</v>
+        <v>0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0.1148536043386383</v>
+        <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.03048712678041677</v>
+        <v>0.01460815439289092</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0.03937246904179714</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>-0.0001534932277220459</v>
       </c>
       <c r="DF15" t="n">
         <v>0</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0.02467444736457463</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0.003217879045790379</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.2073888326742129</v>
+        <v>0.03079357996395915</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>0.001550474019576347</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8749,223 +8749,223 @@
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0.0005372762060466832</v>
       </c>
       <c r="DO15" t="n">
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0.06534010604730481</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.02686210363253865</v>
+        <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.1827325466944895</v>
+        <v>0.03730876190525402</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>0.01723860783134225</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>-0.008746059748456648</v>
       </c>
       <c r="DX15" t="n">
         <v>0</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0500627041745491</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.08737342987277766</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.009451038654432383</v>
+        <v>0.01650795672862657</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0.03860945368572078</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0</v>
+        <v>-0.02203262574153988</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.08275203538975351</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0.2260849742496362</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.04429082766809816</v>
+        <v>-0.003408451035381646</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.04728923408716374</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>0</v>
+        <v>-0.01277627041603102</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.04265394756357874</v>
+        <v>-0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.05416623275960154</v>
+        <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.04216511085195584</v>
+        <v>0.02803751493072065</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0.002817743768328517</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>0</v>
+        <v>-0.01808398236400945</v>
       </c>
       <c r="EY15" t="n">
         <v>0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.05107478197386544</v>
+        <v>-0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.1144026626453177</v>
+        <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.04877779595791193</v>
+        <v>0.02408577528846209</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>0.04115578127544132</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>0.007376195651755181</v>
       </c>
       <c r="FH15" t="n">
         <v>-0</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0.1116115321626685</v>
+        <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.1074078291263656</v>
+        <v>0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.02018070979622351</v>
+        <v>0.01202097803954294</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>-0.002121784118489793</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>0.0006546982649096399</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.02653291952247257</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.004773574883488056</v>
+        <v>0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0001651128614074816</v>
+        <v>-0.0006216824476783274</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>0.01139849522618542</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>-0</v>
+        <v>0.00460258118434362</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.04200879159359635</v>
+        <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0126521577998784</v>
+        <v>-0</v>
       </c>
       <c r="GC15" t="n">
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>0.01054367872908787</v>
       </c>
       <c r="GE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF15" t="n">
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
